--- a/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB22E5-03A5-40BE-9F0C-E10AB305643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE0052-A92C-4C60-8CBD-7FF588E54463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIGINAL" sheetId="1" r:id="rId1"/>
@@ -254,11 +254,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,16 +430,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,13 +777,13 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>0.59259259259259256</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -808,7 +808,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -825,7 +825,7 @@
         <v>0.11864999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -833,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -842,7 +842,7 @@
         <v>11.390625</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
         <v>18.06319250202295</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,19 +869,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87750E0-A0FF-4BCB-AE2D-99B50DD99A09}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,7 +889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0.23255813953488372</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -927,7 +927,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -969,10 +969,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -982,7 +982,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -997,32 +997,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="1">
         <f>F$7+F$9</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1030,126 +1030,126 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="19">
         <f>F$10*F$11+F$11*2*F$12+2*F$12*F$10</f>
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2982.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="15">
         <f>(F$11*(F$13*F$10+F$5*2*F$12))/F$14</f>
-        <v>2.5517241379310347</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+        <v>3.8762236824460237</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="21">
         <f>(F$16-F$5)/F$10</f>
-        <v>1.2931034482758674E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+        <v>1.3762236824460237E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="15">
       <c r="E18" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="23">
         <f>F$17*F$5</f>
-        <v>3.2327586206896686E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+        <v>3.440559206115059E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" ht="15">
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="18">
         <f>F$16^2/F$11</f>
-        <v>0.65112960760998828</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+        <v>3.1968319226288111</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="15">
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="18">
         <f>((F$13-F$16)/2)^2/F$12</f>
-        <v>2.8751783590963136</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+        <v>8.4367994433113811</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
       <c r="E22" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="22">
         <f>F17^2*F10</f>
-        <v>6.6884661117717556E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+        <v>1.8939916241252939E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
       <c r="E25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="21">
         <f>(F$16/F$11)</f>
-        <v>0.25517241379310346</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+        <v>0.82472844307362203</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
       <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="21">
         <f>F$25+F$17</f>
-        <v>0.26810344827586213</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+        <v>0.83849067989808224</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" ht="15">
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6">
       <c r="E29" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="15">
         <f>F13-F16</f>
-        <v>21.448275862068964</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+        <v>20.123776317553975</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6">
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6">
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="5:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" ht="15.75">
       <c r="E33" s="7"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6">
       <c r="E34" s="7"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6">
       <c r="E35" s="7"/>
       <c r="F35" s="1"/>
     </row>

--- a/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE0052-A92C-4C60-8CBD-7FF588E54463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A8591C-44F7-453A-83DA-34F4334EAC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Is [A]</t>
   </si>
@@ -248,6 +248,18 @@
   <si>
     <t>V_Wires[Volt]</t>
   </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Vref</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +270,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +323,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -870,7 +888,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1021,6 +1039,12 @@
       <c r="F12" s="24">
         <v>12</v>
       </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="E13" s="8" t="s">
@@ -1029,6 +1053,12 @@
       <c r="F13" s="14">
         <v>24</v>
       </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
@@ -1038,9 +1068,22 @@
         <f>F$10*F$11+F$11*2*F$12+2*F$12*F$10</f>
         <v>2982.8</v>
       </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14">
+        <f>((O13/(O12-O13))*O15)</f>
+        <v>36333.678756476686</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="F15" s="1"/>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15">
+        <v>149200</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
@@ -1154,6 +1197,7 @@
       <c r="F35" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A8591C-44F7-453A-83DA-34F4334EAC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEC99A2-785D-4143-BB7D-AEFF1A94F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="25005" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIGINAL" sheetId="1" r:id="rId1"/>
@@ -887,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87750E0-A0FF-4BCB-AE2D-99B50DD99A09}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1057,7 +1057,7 @@
         <v>30</v>
       </c>
       <c r="O13">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="O14">
         <f>((O13/(O12-O13))*O15)</f>
-        <v>36333.678756476686</v>
+        <v>31818.18181818182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1082,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>149200</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="16" spans="1:15">

--- a/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEC99A2-785D-4143-BB7D-AEFF1A94F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A1B086-9E21-46B8-ABB1-724083D2020B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="25005" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87750E0-A0FF-4BCB-AE2D-99B50DD99A09}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -942,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="12">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -958,7 +958,7 @@
       </c>
       <c r="F5" s="3">
         <f>F$4*F$6</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
@@ -987,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="12">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F10" s="1">
         <f>F$7+F$9</f>
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="24">
-        <v>4.7</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="24">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1051,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
         <v>30</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F14" s="19">
         <f>F$10*F$11+F$11*2*F$12+2*F$12*F$10</f>
-        <v>2982.8</v>
+        <v>72000000012.800003</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F16" s="15">
         <f>(F$11*(F$13*F$10+F$5*2*F$12))/F$14</f>
-        <v>3.8762236824460237</v>
+        <v>12.888888886597531</v>
       </c>
     </row>
     <row r="17" spans="5:6">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="F17" s="21">
         <f>(F$16-F$5)/F$10</f>
-        <v>1.3762236824460237E-2</v>
+        <v>2.2222222216493828</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="15">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F18" s="23">
         <f>F$17*F$5</f>
-        <v>3.440559206115059E-2</v>
+        <v>8.8888888865975311</v>
       </c>
     </row>
     <row r="19" spans="5:6">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" s="18">
         <f>F$16^2/F$11</f>
-        <v>3.1968319226288111</v>
+        <v>1.6612345673105734E-8</v>
       </c>
     </row>
     <row r="21" spans="5:6" ht="15">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F21" s="18">
         <f>((F$13-F$16)/2)^2/F$12</f>
-        <v>8.4367994433113811</v>
+        <v>7.9012345729931406</v>
       </c>
     </row>
     <row r="22" spans="5:6">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F22" s="22">
         <f>F17^2*F10</f>
-        <v>1.8939916241252939E-2</v>
+        <v>19.753086409569274</v>
       </c>
     </row>
     <row r="25" spans="5:6">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="F25" s="21">
         <f>(F$16/F$11)</f>
-        <v>0.82472844307362203</v>
+        <v>1.2888888886597531E-9</v>
       </c>
     </row>
     <row r="26" spans="5:6">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="F26" s="21">
         <f>F$25+F$17</f>
-        <v>0.83849067989808224</v>
+        <v>2.2222222229382718</v>
       </c>
     </row>
     <row r="27" spans="5:6" ht="15">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F29" s="15">
         <f>F13-F16</f>
-        <v>20.123776317553975</v>
+        <v>7.1111111134024689</v>
       </c>
     </row>
     <row r="30" spans="5:6">

--- a/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A1B086-9E21-46B8-ABB1-724083D2020B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A005D-577E-46EF-93CA-900D85111249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="25005" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="24">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F14" s="19">
         <f>F$10*F$11+F$11*2*F$12+2*F$12*F$10</f>
-        <v>72000000012.800003</v>
+        <v>80000000016</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F16" s="15">
         <f>(F$11*(F$13*F$10+F$5*2*F$12))/F$14</f>
-        <v>12.888888886597531</v>
+        <v>11.9999999976</v>
       </c>
     </row>
     <row r="17" spans="5:6">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="F17" s="21">
         <f>(F$16-F$5)/F$10</f>
-        <v>2.2222222216493828</v>
+        <v>1.9999999994</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="15">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F18" s="23">
         <f>F$17*F$5</f>
-        <v>8.8888888865975311</v>
+        <v>7.9999999975999998</v>
       </c>
     </row>
     <row r="19" spans="5:6">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" s="18">
         <f>F$16^2/F$11</f>
-        <v>1.6612345673105734E-8</v>
+        <v>1.4399999994239999E-8</v>
       </c>
     </row>
     <row r="21" spans="5:6" ht="15">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F21" s="18">
         <f>((F$13-F$16)/2)^2/F$12</f>
-        <v>7.9012345729931406</v>
+        <v>8.0000000048000004</v>
       </c>
     </row>
     <row r="22" spans="5:6">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F22" s="22">
         <f>F17^2*F10</f>
-        <v>19.753086409569274</v>
+        <v>15.999999990399999</v>
       </c>
     </row>
     <row r="25" spans="5:6">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="F25" s="21">
         <f>(F$16/F$11)</f>
-        <v>1.2888888886597531E-9</v>
+        <v>1.1999999997599999E-9</v>
       </c>
     </row>
     <row r="26" spans="5:6">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="F26" s="21">
         <f>F$25+F$17</f>
-        <v>2.2222222229382718</v>
+        <v>2.0000000006</v>
       </c>
     </row>
     <row r="27" spans="5:6" ht="15">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F29" s="15">
         <f>F13-F16</f>
-        <v>7.1111111134024689</v>
+        <v>8.0000000024000002</v>
       </c>
     </row>
     <row r="30" spans="5:6">

--- a/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A005D-577E-46EF-93CA-900D85111249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3000FD2-1B07-4897-BF31-7A661D701DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="25005" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIGINAL" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="24">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F14" s="19">
         <f>F$10*F$11+F$11*2*F$12+2*F$12*F$10</f>
-        <v>80000000016</v>
+        <v>88000000019.199997</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F16" s="15">
         <f>(F$11*(F$13*F$10+F$5*2*F$12))/F$14</f>
-        <v>11.9999999976</v>
+        <v>11.272727270267769</v>
       </c>
     </row>
     <row r="17" spans="5:6">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="F17" s="21">
         <f>(F$16-F$5)/F$10</f>
-        <v>1.9999999994</v>
+        <v>1.8181818175669422</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="15">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F18" s="23">
         <f>F$17*F$5</f>
-        <v>7.9999999975999998</v>
+        <v>7.2727272702677688</v>
       </c>
     </row>
     <row r="19" spans="5:6">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" s="18">
         <f>F$16^2/F$11</f>
-        <v>1.4399999994239999E-8</v>
+        <v>1.2707438010983863E-8</v>
       </c>
     </row>
     <row r="21" spans="5:6" ht="15">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F21" s="18">
         <f>((F$13-F$16)/2)^2/F$12</f>
-        <v>8.0000000048000004</v>
+        <v>7.9338843019924878</v>
       </c>
     </row>
     <row r="22" spans="5:6">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F22" s="22">
         <f>F17^2*F10</f>
-        <v>15.999999990399999</v>
+        <v>13.223140486924118</v>
       </c>
     </row>
     <row r="25" spans="5:6">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="F25" s="21">
         <f>(F$16/F$11)</f>
-        <v>1.1999999997599999E-9</v>
+        <v>1.127272727026777E-9</v>
       </c>
     </row>
     <row r="26" spans="5:6">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="F26" s="21">
         <f>F$25+F$17</f>
-        <v>2.0000000006</v>
+        <v>1.8181818186942149</v>
       </c>
     </row>
     <row r="27" spans="5:6" ht="15">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F29" s="15">
         <f>F13-F16</f>
-        <v>8.0000000024000002</v>
+        <v>8.7272727297322312</v>
       </c>
     </row>
     <row r="30" spans="5:6">

--- a/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\git_nat\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3000FD2-1B07-4897-BF31-7A661D701DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D46A120-41AF-452B-9A89-0D85B70C91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -887,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87750E0-A0FF-4BCB-AE2D-99B50DD99A09}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -942,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -958,7 +961,7 @@
       </c>
       <c r="F5" s="3">
         <f>F$4*F$6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
@@ -972,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -987,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="12">
-        <v>4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1021,7 +1024,7 @@
       </c>
       <c r="F10" s="1">
         <f>F$7+F$9</f>
-        <v>4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1037,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="24">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1066,7 +1069,7 @@
       </c>
       <c r="F14" s="19">
         <f>F$10*F$11+F$11*2*F$12+2*F$12*F$10</f>
-        <v>88000000019.199997</v>
+        <v>153000000057.79999</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
@@ -1091,7 +1094,7 @@
       </c>
       <c r="F16" s="15">
         <f>(F$11*(F$13*F$10+F$5*2*F$12))/F$14</f>
-        <v>11.272727270267769</v>
+        <v>11.111111106913581</v>
       </c>
     </row>
     <row r="17" spans="5:6">
@@ -1100,7 +1103,7 @@
       </c>
       <c r="F17" s="21">
         <f>(F$16-F$5)/F$10</f>
-        <v>1.8181818175669422</v>
+        <v>1.3071895419898332</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="15">
@@ -1109,7 +1112,7 @@
       </c>
       <c r="F18" s="23">
         <f>F$17*F$5</f>
-        <v>7.2727272702677688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:6">
@@ -1121,7 +1124,7 @@
       </c>
       <c r="F20" s="18">
         <f>F$16^2/F$11</f>
-        <v>1.2707438010983863E-8</v>
+        <v>1.2345679003017835E-8</v>
       </c>
     </row>
     <row r="21" spans="5:6" ht="15">
@@ -1130,7 +1133,7 @@
       </c>
       <c r="F21" s="18">
         <f>((F$13-F$16)/2)^2/F$12</f>
-        <v>7.9338843019924878</v>
+        <v>5.8097313054143456</v>
       </c>
     </row>
     <row r="22" spans="5:6">
@@ -1139,7 +1142,7 @@
       </c>
       <c r="F22" s="22">
         <f>F17^2*F10</f>
-        <v>13.223140486924118</v>
+        <v>14.524328238844513</v>
       </c>
     </row>
     <row r="25" spans="5:6">
@@ -1148,7 +1151,7 @@
       </c>
       <c r="F25" s="21">
         <f>(F$16/F$11)</f>
-        <v>1.127272727026777E-9</v>
+        <v>1.1111111106913581E-9</v>
       </c>
     </row>
     <row r="26" spans="5:6">
@@ -1157,7 +1160,7 @@
       </c>
       <c r="F26" s="21">
         <f>F$25+F$17</f>
-        <v>1.8181818186942149</v>
+        <v>1.3071895431009444</v>
       </c>
     </row>
     <row r="27" spans="5:6" ht="15">
@@ -1172,7 +1175,7 @@
       </c>
       <c r="F29" s="15">
         <f>F13-F16</f>
-        <v>8.7272727297322312</v>
+        <v>8.8888888930864187</v>
       </c>
     </row>
     <row r="30" spans="5:6">

--- a/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul חישוב התנגדויות רצויות נתן 30 ינואר 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\git_nat\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D46A120-41AF-452B-9A89-0D85B70C91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421553CD-0ABD-421E-B588-FE22CF7B3A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIGINAL" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -273,7 +270,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,13 +795,13 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,7 +809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -821,7 +818,7 @@
         <v>0.59259259259259256</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -829,7 +826,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -837,7 +834,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -846,7 +843,7 @@
         <v>0.11864999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -854,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -863,7 +860,7 @@
         <v>11.390625</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,7 +869,7 @@
         <v>18.06319250202295</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,19 +887,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87750E0-A0FF-4BCB-AE2D-99B50DD99A09}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -910,7 +907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -919,7 +916,7 @@
         <v>0.23255813953488372</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -934,7 +931,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -948,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -964,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -978,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -993,7 +990,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,7 +1000,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1024,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1032,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1063,7 +1060,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>31818.18181818182</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="N15" t="s">
         <v>29</v>
@@ -1088,7 +1085,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1094,7 @@
         <v>11.111111106913581</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>21</v>
       </c>
@@ -1106,7 +1103,7 @@
         <v>1.3071895419898332</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="15">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>23</v>
       </c>
@@ -1115,10 +1112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="5:6" ht="15">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1124,7 @@
         <v>1.2345679003017835E-8</v>
       </c>
     </row>
-    <row r="21" spans="5:6" ht="15">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>17</v>
       </c>
@@ -1136,7 +1133,7 @@
         <v>5.8097313054143456</v>
       </c>
     </row>
-    <row r="22" spans="5:6">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1142,7 @@
         <v>14.524328238844513</v>
       </c>
     </row>
-    <row r="25" spans="5:6">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>24</v>
       </c>
@@ -1154,7 +1151,7 @@
         <v>1.1111111106913581E-9</v>
       </c>
     </row>
-    <row r="26" spans="5:6">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>25</v>
       </c>
@@ -1163,13 +1160,13 @@
         <v>1.3071895431009444</v>
       </c>
     </row>
-    <row r="27" spans="5:6" ht="15">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="5:6">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="5:6">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>27</v>
       </c>
@@ -1178,24 +1175,24 @@
         <v>8.8888888930864187</v>
       </c>
     </row>
-    <row r="30" spans="5:6">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="5:6">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="5:6">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="5:6" ht="15.75">
+    <row r="33" spans="5:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="5:6">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="5:6">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="1"/>
     </row>
